--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -817,54 +830,66 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,34 +1123,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1114,54 +1167,66 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1222,40 +1289,46 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>200</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
@@ -1264,10 +1337,16 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>200</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1372,34 +1463,40 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
-      </c>
-      <c r="I24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>40</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2108,13 +2299,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2155,10 +2352,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2167,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2187,78 +2384,90 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>40</v>
@@ -2275,25 +2484,31 @@
       <c r="P47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2661,10 +2922,16 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,7 +2995,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -2734,10 +3007,10 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
@@ -2746,57 +3019,69 @@
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,13 +3124,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2854,19 +3145,19 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>40</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,28 +3342,28 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
@@ -3057,10 +3372,16 @@
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>700</v>
+      </c>
+      <c r="R66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
-        <v>200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,28 +4319,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3922,22 +4355,28 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,37 +4393,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>40</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,26 +4539,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,38 +4809,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,28 +4909,34 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4442,18 +4945,24 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,25 +804,25 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -836,24 +843,27 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -862,34 +872,37 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,28 +1151,29 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1155,7 +1182,7 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1173,10 +1200,13 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1184,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>100</v>
@@ -1199,34 +1229,37 @@
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1295,43 +1329,46 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>100</v>
@@ -1343,10 +1380,13 @@
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1469,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>200</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
@@ -1489,14 +1535,17 @@
       <c r="P24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1554,13 +1606,13 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -1569,34 +1621,37 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1604,13 +1659,13 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -1619,34 +1674,37 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1904,13 +1977,13 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -1919,34 +1992,37 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2004,13 +2083,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -2019,89 +2098,95 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,31 +2226,32 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -2173,13 +2260,13 @@
         <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2188,10 +2275,13 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,25 +2330,28 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
@@ -2267,48 +2360,51 @@
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2358,7 +2457,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2370,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2390,49 +2489,52 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
@@ -2440,37 +2542,40 @@
       <c r="R46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1400</v>
       </c>
       <c r="J47" s="3">
         <v>1400</v>
       </c>
       <c r="K47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L47" s="3">
         <v>1500</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>40</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2610,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2511,7 +2619,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E54" s="3">
         <v>3500</v>
       </c>
       <c r="F54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G54" s="3">
         <v>3200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2900</v>
       </c>
       <c r="H54" s="3">
         <v>2900</v>
       </c>
       <c r="I54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="J54" s="3">
         <v>2500</v>
       </c>
       <c r="K54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2928,10 +3059,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3001,19 +3138,19 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -3025,13 +3162,16 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,46 +3182,49 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,7 +3285,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3151,16 +3297,16 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>40</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3348,25 +3506,25 @@
         <v>700</v>
       </c>
       <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
@@ -3378,10 +3536,13 @@
         <v>700</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="E72" s="3">
         <v>-10300</v>
       </c>
       <c r="F72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11200</v>
       </c>
       <c r="K72" s="3">
         <v>-11200</v>
       </c>
       <c r="L72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-12600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-13100</v>
       </c>
       <c r="P72" s="3">
         <v>-13100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-13200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E76" s="3">
         <v>2800</v>
       </c>
       <c r="F76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1900</v>
       </c>
       <c r="K76" s="3">
         <v>1900</v>
       </c>
       <c r="L76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
-        <v>200</v>
-      </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -3964,13 +4159,13 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -3979,34 +4174,37 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,31 +4539,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4361,22 +4578,25 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>40</v>
@@ -4415,20 +4636,20 @@
       <c r="H91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>40</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,19 +4784,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>40</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4841,14 +5087,14 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>40</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,31 +5164,34 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4951,18 +5203,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
       <c r="Q8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,25 +814,25 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -846,28 +853,31 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
@@ -875,34 +885,37 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
-        <v>300</v>
-      </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
-        <v>300</v>
-      </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,22 +1188,22 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1185,7 +1212,7 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1203,27 +1230,30 @@
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
@@ -1232,34 +1262,37 @@
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,46 +1366,49 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
@@ -1383,10 +1420,13 @@
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1518,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>200</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>40</v>
@@ -1538,14 +1584,17 @@
       <c r="Q24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,25 +1646,28 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -1624,51 +1676,54 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -1677,34 +1732,37 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1968,25 +2038,28 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -1995,34 +2068,37 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,25 +2150,28 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2101,92 +2180,98 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,35 +2313,36 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>300</v>
-      </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
@@ -2263,13 +2350,13 @@
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
@@ -2278,10 +2365,13 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2333,28 +2423,31 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -2363,31 +2456,34 @@
         <v>600</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>300</v>
-      </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2395,19 +2491,19 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2460,7 +2559,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2472,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,52 +2591,55 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
@@ -2545,40 +2647,43 @@
       <c r="S46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1400</v>
       </c>
       <c r="K47" s="3">
         <v>1400</v>
       </c>
       <c r="L47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M47" s="3">
         <v>1500</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>40</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2622,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3500</v>
       </c>
       <c r="F54" s="3">
         <v>3500</v>
       </c>
       <c r="G54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H54" s="3">
         <v>3200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2900</v>
       </c>
       <c r="I54" s="3">
         <v>2900</v>
       </c>
       <c r="J54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K54" s="3">
         <v>2500</v>
       </c>
       <c r="L54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,7 +3151,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3062,15 +3193,18 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3117,13 +3251,16 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3141,19 +3278,19 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -3165,18 +3302,21 @@
         <v>500</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
@@ -3185,46 +3325,49 @@
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
-        <v>300</v>
-      </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3300,16 +3446,16 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>40</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3509,25 +3667,25 @@
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>700</v>
@@ -3539,10 +3697,13 @@
         <v>700</v>
       </c>
       <c r="S66" s="3">
+        <v>700</v>
+      </c>
+      <c r="T66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-10300</v>
       </c>
       <c r="F72" s="3">
         <v>-10300</v>
       </c>
       <c r="G72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-10600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-11200</v>
       </c>
       <c r="L72" s="3">
         <v>-11200</v>
       </c>
       <c r="M72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-13100</v>
       </c>
       <c r="Q72" s="3">
         <v>-13100</v>
       </c>
       <c r="R72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-13200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2800</v>
       </c>
       <c r="F76" s="3">
         <v>2800</v>
       </c>
       <c r="G76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1900</v>
       </c>
       <c r="L76" s="3">
         <v>1900</v>
       </c>
       <c r="M76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
-        <v>200</v>
-      </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
       <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,83 +4281,89 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
@@ -4177,34 +4372,37 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4581,22 +4798,25 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>40</v>
@@ -4639,20 +4860,20 @@
       <c r="I91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>40</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,19 +5017,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>40</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5090,14 +5336,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>40</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,34 +5416,37 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5206,18 +5458,21 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -856,66 +869,78 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
-        <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
-        <v>300</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
-      </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,46 +1230,48 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1233,66 +1286,78 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,52 +1436,58 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
@@ -1423,10 +1496,16 @@
         <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>200</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1567,34 +1658,40 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>40</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>200</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>200</v>
-      </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>200</v>
-      </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>200</v>
-      </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
-      </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
-      </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,90 +2605,102 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>600</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2538,19 +2729,25 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2562,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2574,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,102 +2791,114 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>600</v>
+      </c>
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>40</v>
@@ -2706,16 +2915,22 @@
       <c r="T47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2724,19 +2939,19 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>500</v>
+      </c>
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,13 +3412,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3196,21 +3457,27 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3254,19 +3521,25 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3281,7 +3554,7 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3293,10 +3566,10 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
@@ -3305,13 +3578,19 @@
         <v>500</v>
       </c>
       <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3598,61 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
-        <v>300</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
-        <v>300</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
+        <v>600</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,13 +3707,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3437,10 +3728,10 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -3449,19 +3740,19 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>40</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,10 +3970,10 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
@@ -3670,28 +3985,28 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
@@ -3700,10 +4015,16 @@
         <v>700</v>
       </c>
       <c r="T66" s="3">
+        <v>700</v>
+      </c>
+      <c r="U66" s="3">
+        <v>700</v>
+      </c>
+      <c r="V66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
-        <v>200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>200</v>
-      </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4771,28 +5204,28 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4801,22 +5234,28 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4852,34 +5293,34 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,23 +5479,23 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5339,18 +5830,18 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,31 +5931,31 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5461,18 +5964,24 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
+        <v>800</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
       </c>
       <c r="T8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,7 +834,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -836,25 +843,25 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -875,37 +882,40 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
-        <v>300</v>
-      </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
@@ -913,34 +923,37 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
-        <v>300</v>
-      </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
-        <v>300</v>
-      </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,28 +1271,28 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1274,7 +1301,7 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1292,36 +1319,39 @@
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
@@ -1330,34 +1360,37 @@
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1451,46 +1488,46 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K21" s="3">
         <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S21" s="3">
         <v>100</v>
@@ -1502,10 +1539,13 @@
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1664,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>200</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>40</v>
@@ -1684,14 +1730,17 @@
       <c r="T24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,34 +1801,37 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
@@ -1788,60 +1840,63 @@
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
@@ -1850,34 +1905,37 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2186,34 +2256,37 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
@@ -2222,34 +2295,37 @@
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,34 +2386,37 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
@@ -2346,101 +2425,107 @@
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,44 +2573,45 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1400</v>
       </c>
       <c r="F41" s="3">
         <v>1400</v>
       </c>
       <c r="G41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>300</v>
-      </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
@@ -2532,13 +2619,13 @@
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -2547,10 +2634,13 @@
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2611,37 +2701,40 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
       </c>
       <c r="L43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
@@ -2650,40 +2743,43 @@
         <v>600</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
-        <v>300</v>
-      </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>200</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
-        <v>300</v>
-      </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
@@ -2691,19 +2787,19 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2735,22 +2831,25 @@
       <c r="V44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2765,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2777,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2797,61 +2896,64 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
@@ -2859,49 +2961,52 @@
       <c r="V46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1300</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1400</v>
       </c>
       <c r="N47" s="3">
         <v>1400</v>
       </c>
       <c r="O47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P47" s="3">
         <v>1500</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>40</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +3041,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2945,7 +3053,7 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2954,7 +3062,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,61 +3428,64 @@
         <v>4000</v>
       </c>
       <c r="E54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3500</v>
       </c>
       <c r="I54" s="3">
         <v>3500</v>
       </c>
       <c r="J54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2900</v>
       </c>
       <c r="L54" s="3">
         <v>2900</v>
       </c>
       <c r="M54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N54" s="3">
         <v>2500</v>
       </c>
       <c r="O54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>600</v>
       </c>
       <c r="V54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,16 +3543,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3463,24 +3594,27 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3527,22 +3661,25 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3560,19 +3697,19 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -3584,13 +3721,16 @@
         <v>500</v>
       </c>
       <c r="U59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3604,7 +3744,7 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -3613,46 +3753,49 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
-        <v>300</v>
-      </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>300</v>
-      </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
+        <v>600</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -3734,7 +3880,7 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3746,16 +3892,16 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>40</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,22 +4116,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -3991,25 +4149,25 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
+        <v>700</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
@@ -4021,10 +4179,13 @@
         <v>700</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-10300</v>
       </c>
       <c r="I72" s="3">
         <v>-10300</v>
       </c>
       <c r="J72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11200</v>
       </c>
       <c r="O72" s="3">
         <v>-11200</v>
       </c>
       <c r="P72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-13100</v>
       </c>
       <c r="T72" s="3">
         <v>-13100</v>
       </c>
       <c r="U72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-13200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,61 +4738,64 @@
         <v>3600</v>
       </c>
       <c r="E76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F76" s="3">
         <v>3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2800</v>
       </c>
       <c r="I76" s="3">
         <v>2800</v>
       </c>
       <c r="J76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1900</v>
       </c>
       <c r="O76" s="3">
         <v>1900</v>
       </c>
       <c r="P76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
-        <v>200</v>
-      </c>
       <c r="R76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
       <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,101 +4856,107 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
@@ -4770,34 +4965,37 @@
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,43 +5406,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5240,22 +5457,25 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5299,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>40</v>
@@ -5310,20 +5531,20 @@
       <c r="L91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>40</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,19 +5715,19 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>40</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5836,14 +6082,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>40</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,43 +6171,46 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>300</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5970,18 +6222,21 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
       </c>
       <c r="U8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -837,7 +844,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -846,25 +853,25 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -885,40 +892,43 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>300</v>
-      </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
@@ -926,34 +936,37 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
-        <v>300</v>
-      </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
-        <v>300</v>
-      </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1274,28 +1301,28 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1304,7 +1331,7 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1322,10 +1349,13 @@
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1333,28 +1363,28 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
@@ -1363,34 +1393,37 @@
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,58 +1513,61 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
         <v>100</v>
@@ -1542,10 +1579,13 @@
         <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1618,64 +1661,67 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1713,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>200</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>40</v>
@@ -1733,14 +1779,17 @@
       <c r="U24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1813,28 +1865,28 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -1843,34 +1895,37 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1878,28 +1933,28 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
@@ -1908,34 +1963,37 @@
         <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -2268,28 +2341,28 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
@@ -2298,34 +2371,37 @@
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2398,28 +2477,28 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
@@ -2428,104 +2507,110 @@
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,47 +2660,48 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1400</v>
       </c>
       <c r="G41" s="3">
         <v>1400</v>
       </c>
       <c r="H41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>300</v>
-      </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
@@ -2622,13 +2709,13 @@
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>400</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
@@ -2637,10 +2724,13 @@
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2704,40 +2794,43 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
       </c>
       <c r="L43" s="3">
         <v>800</v>
       </c>
       <c r="M43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N43" s="3">
         <v>600</v>
@@ -2746,31 +2839,34 @@
         <v>600</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>300</v>
-      </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2778,11 +2874,11 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
-        <v>300</v>
-      </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
@@ -2790,19 +2886,19 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2834,25 +2930,28 @@
       <c r="W44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2867,7 +2966,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2879,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2908,55 +3010,55 @@
         <v>3400</v>
       </c>
       <c r="E46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>500</v>
       </c>
       <c r="V46" s="3">
         <v>500</v>
@@ -2964,52 +3066,55 @@
       <c r="W46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1400</v>
       </c>
       <c r="O47" s="3">
         <v>1400</v>
       </c>
       <c r="P47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>40</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3044,7 +3152,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -3056,7 +3164,7 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3065,7 +3173,7 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E54" s="3">
         <v>4000</v>
       </c>
       <c r="F54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3500</v>
       </c>
       <c r="J54" s="3">
         <v>3500</v>
       </c>
       <c r="K54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L54" s="3">
         <v>3200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2900</v>
       </c>
       <c r="M54" s="3">
         <v>2900</v>
       </c>
       <c r="N54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="O54" s="3">
         <v>2500</v>
       </c>
       <c r="P54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>600</v>
       </c>
       <c r="W54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,28 +3664,29 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3597,10 +3728,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,14 +3744,14 @@
       <c r="E58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,16 +3810,16 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3700,19 +3837,19 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -3724,18 +3861,21 @@
         <v>500</v>
       </c>
       <c r="V59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -3747,7 +3887,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
@@ -3756,46 +3896,49 @@
         <v>500</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
-        <v>300</v>
-      </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
-      </c>
-      <c r="T60" s="3">
-        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
+        <v>600</v>
+      </c>
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4017,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3883,7 +4029,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3895,16 +4041,16 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>40</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,25 +4274,28 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -4152,25 +4310,25 @@
         <v>700</v>
       </c>
       <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>700</v>
       </c>
       <c r="T66" s="3">
         <v>700</v>
@@ -4182,10 +4340,13 @@
         <v>700</v>
       </c>
       <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4652,67 @@
         <v>-9600</v>
       </c>
       <c r="E72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-10300</v>
       </c>
       <c r="J72" s="3">
         <v>-10300</v>
       </c>
       <c r="K72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-10600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11200</v>
       </c>
       <c r="P72" s="3">
         <v>-11200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-13100</v>
       </c>
       <c r="U72" s="3">
         <v>-13100</v>
       </c>
       <c r="V72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="W72" s="3">
         <v>-13200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,61 +4927,64 @@
         <v>3600</v>
       </c>
       <c r="F76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G76" s="3">
         <v>3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2800</v>
       </c>
       <c r="J76" s="3">
         <v>2800</v>
       </c>
       <c r="K76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1900</v>
       </c>
       <c r="P76" s="3">
         <v>1900</v>
       </c>
       <c r="Q76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
-        <v>200</v>
-      </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
       </c>
       <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -4938,28 +5133,28 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
@@ -4968,34 +5163,37 @@
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,37 +5635,37 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5460,22 +5677,25 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>40</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5523,10 +5744,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>40</v>
@@ -5534,20 +5755,20 @@
       <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>40</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5718,19 +5948,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>40</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6085,14 +6331,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>40</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,37 +6435,37 @@
         <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>300</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6225,18 +6477,21 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>200</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,111 +780,117 @@
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
       </c>
       <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>400</v>
       </c>
       <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -895,78 +908,90 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
-        <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
-        <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
-      </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
-        <v>300</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
-        <v>300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>300</v>
-      </c>
       <c r="V10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
       <c r="X10" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,58 +1337,60 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1352,78 +1405,90 @@
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>200</v>
-      </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,64 +1583,70 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>100</v>
@@ -1582,10 +1655,16 @@
         <v>100</v>
       </c>
       <c r="X21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>100</v>
       </c>
       <c r="X23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1762,34 +1853,40 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>40</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
       </c>
       <c r="X26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
       </c>
       <c r="X27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,76 +2471,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
-      </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
-        <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>200</v>
-      </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2797,76 +2976,88 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>600</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
       </c>
       <c r="Q43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R43" s="3">
+        <v>600</v>
+      </c>
+      <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
-        <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>200</v>
-      </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2874,37 +3065,37 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
-        <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
-      </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2942,22 +3139,22 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2969,10 +3166,10 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2981,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3001,8 +3198,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -3013,114 +3216,120 @@
         <v>3400</v>
       </c>
       <c r="F46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
-      </c>
-      <c r="V46" s="3">
-        <v>500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>500</v>
       </c>
       <c r="X46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>300</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1500</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>40</v>
@@ -3137,8 +3346,14 @@
       <c r="X47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3155,10 +3370,10 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -3167,19 +3382,19 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>500</v>
       </c>
       <c r="W54" s="3">
         <v>600</v>
       </c>
       <c r="X54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,34 +3924,36 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3731,10 +3992,16 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3747,17 +4014,17 @@
       <c r="F58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3801,8 +4068,14 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,19 +4086,19 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3840,7 +4113,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3852,10 +4125,10 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
@@ -3864,24 +4137,30 @@
         <v>500</v>
       </c>
       <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3890,55 +4169,61 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
-        <v>300</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
-        <v>300</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4020,10 +4311,10 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4032,10 +4323,10 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -4044,19 +4335,19 @@
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>40</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,19 +4586,25 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4298,10 +4613,10 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -4313,28 +4628,28 @@
         <v>700</v>
       </c>
       <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>700</v>
       </c>
       <c r="V66" s="3">
         <v>700</v>
@@ -4343,10 +4658,16 @@
         <v>700</v>
       </c>
       <c r="X66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="E76" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F76" s="3">
         <v>3600</v>
       </c>
       <c r="G76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I76" s="3">
         <v>3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
-        <v>200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
+        <v>200</v>
+      </c>
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,13 +6068,13 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>400</v>
@@ -5650,28 +6083,28 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5680,22 +6113,28 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,25 +6159,27 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5747,34 +6188,34 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6377,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5951,23 +6410,23 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6334,18 +6825,18 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="T100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6849,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6923,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,43 +6938,43 @@
         <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6480,18 +6983,24 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
-        <v>300</v>
-      </c>
       <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>800</v>
       </c>
       <c r="J8" s="3">
         <v>800</v>
       </c>
       <c r="K8" s="3">
+        <v>800</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>400</v>
       </c>
       <c r="W8" s="3">
         <v>400</v>
       </c>
       <c r="X8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,10 +861,10 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -866,7 +873,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -875,25 +882,25 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -914,49 +921,52 @@
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
-        <v>300</v>
-      </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
-        <v>300</v>
-      </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
@@ -964,34 +974,37 @@
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="T10" s="3">
-        <v>300</v>
-      </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
-        <v>300</v>
-      </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
       <c r="X10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,22 +1365,23 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1363,28 +1390,28 @@
         <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1393,7 +1420,7 @@
         <v>400</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
@@ -1411,48 +1438,51 @@
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
@@ -1461,34 +1491,37 @@
         <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>200</v>
+      </c>
+      <c r="T18" s="3">
         <v>1500</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W18" s="3">
         <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,67 +1623,70 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W21" s="3">
         <v>100</v>
@@ -1661,10 +1698,13 @@
         <v>100</v>
       </c>
       <c r="Z21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>200</v>
+      </c>
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W23" s="3">
         <v>100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1859,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>200</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>200</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>40</v>
@@ -1879,14 +1925,17 @@
       <c r="X24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,46 +2008,49 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -2007,72 +2059,75 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -2081,34 +2136,37 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2477,46 +2547,49 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -2525,34 +2598,37 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,46 +2701,49 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -2673,113 +2752,119 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,56 +2920,57 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1400</v>
       </c>
       <c r="J41" s="3">
         <v>1400</v>
       </c>
       <c r="K41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>300</v>
-      </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
@@ -2891,13 +2978,13 @@
         <v>300</v>
       </c>
       <c r="U41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
@@ -2906,10 +2993,13 @@
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2982,49 +3072,52 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>800</v>
       </c>
       <c r="O43" s="3">
         <v>800</v>
       </c>
       <c r="P43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q43" s="3">
         <v>600</v>
@@ -3033,31 +3126,34 @@
         <v>600</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
-        <v>300</v>
-      </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3065,20 +3161,20 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
-        <v>300</v>
-      </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
@@ -3086,19 +3182,19 @@
         <v>300</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3139,25 +3238,25 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3172,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3184,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3204,13 +3303,16 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E46" s="3">
         <v>3400</v>
@@ -3222,55 +3324,55 @@
         <v>3400</v>
       </c>
       <c r="H46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
-      </c>
-      <c r="X46" s="3">
-        <v>500</v>
       </c>
       <c r="Y46" s="3">
         <v>500</v>
@@ -3278,61 +3380,64 @@
       <c r="Z46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1400</v>
       </c>
       <c r="R47" s="3">
         <v>1400</v>
       </c>
       <c r="S47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T47" s="3">
         <v>1500</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>40</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3376,7 +3484,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -3388,7 +3496,7 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3397,7 +3505,7 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4000</v>
       </c>
       <c r="H54" s="3">
         <v>4000</v>
       </c>
       <c r="I54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3500</v>
       </c>
       <c r="M54" s="3">
         <v>3500</v>
       </c>
       <c r="N54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O54" s="3">
         <v>3200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2900</v>
       </c>
       <c r="P54" s="3">
         <v>2900</v>
       </c>
       <c r="Q54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="R54" s="3">
         <v>2500</v>
       </c>
       <c r="S54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>600</v>
       </c>
       <c r="Z54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,28 +4066,28 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3998,27 +4129,30 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>40</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4027,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4092,16 +4229,16 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -4119,19 +4256,19 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
@@ -4143,13 +4280,16 @@
         <v>500</v>
       </c>
       <c r="Y59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,13 +4297,13 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -4175,7 +4315,7 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -4184,46 +4324,49 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
-        <v>300</v>
-      </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
-        <v>300</v>
-      </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
       </c>
       <c r="Y60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4317,7 +4463,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -4329,7 +4475,7 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -4341,16 +4487,16 @@
         <v>300</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>40</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,34 +4747,37 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
-        <v>300</v>
-      </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
@@ -4634,25 +4792,25 @@
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>700</v>
       </c>
       <c r="W66" s="3">
         <v>700</v>
@@ -4664,10 +4822,13 @@
         <v>700</v>
       </c>
       <c r="Z66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9600</v>
       </c>
       <c r="G72" s="3">
         <v>-9600</v>
       </c>
       <c r="H72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10300</v>
       </c>
       <c r="M72" s="3">
         <v>-10300</v>
       </c>
       <c r="N72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-10600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-11200</v>
       </c>
       <c r="S72" s="3">
         <v>-11200</v>
       </c>
       <c r="T72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-13100</v>
       </c>
       <c r="X72" s="3">
         <v>-13100</v>
       </c>
       <c r="Y72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,19 +5469,22 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>3600</v>
       </c>
       <c r="G76" s="3">
         <v>3600</v>
@@ -5307,61 +5493,64 @@
         <v>3600</v>
       </c>
       <c r="I76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J76" s="3">
         <v>3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2800</v>
       </c>
       <c r="M76" s="3">
         <v>2800</v>
       </c>
       <c r="N76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1900</v>
       </c>
       <c r="S76" s="3">
         <v>1900</v>
       </c>
       <c r="T76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
-        <v>200</v>
-      </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X76" s="3">
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,125 +5623,131 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -5561,34 +5756,37 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,55 +6273,58 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6119,22 +6336,25 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,28 +6381,29 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>40</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6194,10 +6415,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>40</v>
@@ -6205,20 +6426,20 @@
       <c r="P91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>40</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,16 +6610,19 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6416,19 +6646,19 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>40</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6831,14 +7077,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>40</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,55 +7178,58 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
       <c r="G102" s="3">
         <v>200</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>300</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6989,18 +7241,21 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>300</v>
-      </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>300</v>
-      </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
       </c>
       <c r="L8" s="3">
+        <v>800</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>400</v>
       </c>
       <c r="X8" s="3">
         <v>400</v>
       </c>
       <c r="Y8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,10 +871,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -876,7 +883,7 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -885,25 +892,25 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -924,52 +931,55 @@
         <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
-        <v>300</v>
-      </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
-        <v>300</v>
-      </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
@@ -977,34 +987,37 @@
         <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="3">
-        <v>300</v>
-      </c>
       <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
-        <v>300</v>
-      </c>
       <c r="X10" s="3">
         <v>300</v>
       </c>
       <c r="Y10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,25 +1392,26 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1393,28 +1420,28 @@
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1423,7 +1450,7 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1441,51 +1468,54 @@
         <v>300</v>
       </c>
       <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3">
         <v>100</v>
@@ -1494,34 +1524,37 @@
         <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>200</v>
+      </c>
+      <c r="U18" s="3">
         <v>1500</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X18" s="3">
         <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1626,70 +1660,73 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X21" s="3">
         <v>100</v>
@@ -1701,10 +1738,13 @@
         <v>100</v>
       </c>
       <c r="AA21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X23" s="3">
         <v>100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1908,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>200</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>40</v>
@@ -1928,14 +1974,17 @@
       <c r="Y24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
+      <c r="Z24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,49 +2060,52 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
@@ -2062,75 +2114,78 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X26" s="3">
         <v>100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
@@ -2139,34 +2194,37 @@
         <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X27" s="3">
         <v>100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2550,49 +2620,52 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
@@ -2601,34 +2674,37 @@
         <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X33" s="3">
         <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,49 +2780,52 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
@@ -2755,116 +2834,122 @@
         <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X35" s="3">
         <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,59 +3007,60 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1400</v>
       </c>
       <c r="K41" s="3">
         <v>1400</v>
       </c>
       <c r="L41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
-        <v>300</v>
-      </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
@@ -2981,13 +3068,13 @@
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
@@ -2996,10 +3083,13 @@
         <v>200</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,52 +3165,55 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>800</v>
       </c>
       <c r="P43" s="3">
         <v>800</v>
       </c>
       <c r="Q43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R43" s="3">
         <v>600</v>
@@ -3129,31 +3222,34 @@
         <v>600</v>
       </c>
       <c r="T43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
-        <v>300</v>
-      </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3164,20 +3260,20 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
-        <v>300</v>
-      </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
@@ -3185,19 +3281,19 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3241,25 +3340,25 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3274,7 +3373,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3286,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3306,16 +3405,19 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3400</v>
       </c>
       <c r="F46" s="3">
         <v>3400</v>
@@ -3327,55 +3429,55 @@
         <v>3400</v>
       </c>
       <c r="I46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>500</v>
       </c>
       <c r="Z46" s="3">
         <v>500</v>
@@ -3383,64 +3485,67 @@
       <c r="AA46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
+        <v>300</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1300</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1400</v>
       </c>
       <c r="S47" s="3">
         <v>1400</v>
       </c>
       <c r="T47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U47" s="3">
         <v>1500</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>40</v>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3487,7 +3595,7 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -3499,7 +3607,7 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3508,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4000</v>
       </c>
       <c r="I54" s="3">
         <v>4000</v>
       </c>
       <c r="J54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3500</v>
       </c>
       <c r="N54" s="3">
         <v>3500</v>
       </c>
       <c r="O54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P54" s="3">
         <v>3200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2900</v>
       </c>
       <c r="Q54" s="3">
         <v>2900</v>
       </c>
       <c r="R54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="S54" s="3">
         <v>2500</v>
       </c>
       <c r="T54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>600</v>
       </c>
       <c r="AA54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,40 +4187,41 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -4132,10 +4263,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4164,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4232,16 +4369,16 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -4259,19 +4396,19 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
@@ -4283,13 +4420,16 @@
         <v>500</v>
       </c>
       <c r="Z59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,13 +4440,13 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -4318,7 +4458,7 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -4327,46 +4467,49 @@
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
-        <v>300</v>
-      </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
-        <v>300</v>
-      </c>
       <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
-      </c>
-      <c r="X60" s="3">
-        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
       </c>
       <c r="Z60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4466,7 +4612,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -4478,7 +4624,7 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -4490,16 +4636,16 @@
         <v>300</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>40</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,28 +4917,28 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
-        <v>300</v>
-      </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
@@ -4795,25 +4953,25 @@
         <v>700</v>
       </c>
       <c r="Q66" s="3">
+        <v>700</v>
+      </c>
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>700</v>
       </c>
       <c r="X66" s="3">
         <v>700</v>
@@ -4825,10 +4983,13 @@
         <v>700</v>
       </c>
       <c r="AA66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9600</v>
       </c>
       <c r="H72" s="3">
         <v>-9600</v>
       </c>
       <c r="I72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-10300</v>
       </c>
       <c r="N72" s="3">
         <v>-10300</v>
       </c>
       <c r="O72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-10600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-11200</v>
       </c>
       <c r="T72" s="3">
         <v>-11200</v>
       </c>
       <c r="U72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-13100</v>
       </c>
       <c r="Y72" s="3">
         <v>-13100</v>
       </c>
       <c r="Z72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,22 +5655,25 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3600</v>
       </c>
       <c r="H76" s="3">
         <v>3600</v>
@@ -5496,61 +5682,64 @@
         <v>3600</v>
       </c>
       <c r="J76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2800</v>
       </c>
       <c r="N76" s="3">
         <v>2800</v>
       </c>
       <c r="O76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1900</v>
       </c>
       <c r="T76" s="3">
         <v>1900</v>
       </c>
       <c r="U76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
-        <v>200</v>
-      </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,131 +5815,137 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
@@ -5759,34 +5954,37 @@
         <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X81" s="3">
         <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,58 +6490,61 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6339,22 +6556,25 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,16 +6602,17 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>40</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6399,11 +6620,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>40</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6418,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>40</v>
@@ -6429,20 +6650,20 @@
       <c r="Q91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>40</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,19 +6840,22 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>40</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6649,19 +6879,19 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>40</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,19 +7270,22 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7047,11 +7293,11 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -7080,14 +7326,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>40</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,58 +7430,61 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
         <v>200</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>300</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7244,18 +7496,21 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
@@ -800,69 +807,75 @@
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>500</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
-      </c>
-      <c r="V8" s="3">
-        <v>400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>500</v>
       </c>
       <c r="X8" s="3">
         <v>400</v>
       </c>
       <c r="Y8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z8" s="3">
         <v>400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>300</v>
       </c>
       <c r="AA8" s="3">
         <v>400</v>
       </c>
       <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -874,49 +887,49 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -934,90 +947,102 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
-        <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
-        <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
-      </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1800</v>
       </c>
-      <c r="V10" s="3">
-        <v>300</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>300</v>
-      </c>
       <c r="Z10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA10" s="3">
         <v>300</v>
       </c>
       <c r="AB10" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,70 +1444,72 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>500</v>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
       <c r="J17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
       </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
@@ -1471,90 +1524,102 @@
         <v>300</v>
       </c>
       <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>200</v>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>200</v>
+      </c>
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>200</v>
-      </c>
       <c r="X18" s="3">
         <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
         <v>100</v>
       </c>
       <c r="AB18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,13 +1648,15 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1663,76 +1730,82 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>200</v>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
         <v>1500</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>200</v>
-      </c>
       <c r="X21" s="3">
         <v>100</v>
       </c>
       <c r="Y21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z21" s="3">
         <v>100</v>
@@ -1741,10 +1814,16 @@
         <v>100</v>
       </c>
       <c r="AB21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>200</v>
+      </c>
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>200</v>
-      </c>
       <c r="X23" s="3">
         <v>100</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
         <v>100</v>
       </c>
       <c r="AB23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1957,34 +2048,40 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
-      </c>
-      <c r="U24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>40</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>200</v>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>200</v>
-      </c>
       <c r="X26" s="3">
         <v>100</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>100</v>
       </c>
       <c r="AB26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>200</v>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>200</v>
-      </c>
       <c r="X27" s="3">
         <v>100</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>100</v>
       </c>
       <c r="AB27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,13 +2676,19 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
-        <v>200</v>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>200</v>
-      </c>
       <c r="X33" s="3">
         <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>100</v>
       </c>
       <c r="AB33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
-        <v>200</v>
+      <c r="D35" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>200</v>
-      </c>
       <c r="X35" s="3">
         <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>100</v>
       </c>
       <c r="AB35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -3017,79 +3190,85 @@
         <v>5400</v>
       </c>
       <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>300</v>
-      </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>200</v>
-      </c>
       <c r="AA41" s="3">
         <v>200</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3168,13 +3347,19 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
         <v>1100</v>
@@ -3183,78 +3368,84 @@
         <v>800</v>
       </c>
       <c r="G43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>1000</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>600</v>
-      </c>
-      <c r="S43" s="3">
-        <v>600</v>
       </c>
       <c r="T43" s="3">
         <v>600</v>
       </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="V43" s="3">
+        <v>600</v>
+      </c>
+      <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
-        <v>300</v>
-      </c>
-      <c r="X43" s="3">
-        <v>200</v>
-      </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
@@ -3263,43 +3454,43 @@
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
-        <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
-      </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -3328,13 +3519,19 @@
       <c r="AB44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3343,28 +3540,28 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3376,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3388,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3408,22 +3605,28 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F46" s="3">
         <v>6700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3400</v>
       </c>
       <c r="H46" s="3">
         <v>3400</v>
@@ -3432,126 +3635,132 @@
         <v>3400</v>
       </c>
       <c r="J46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>500</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>500</v>
       </c>
       <c r="AB46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1500</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>40</v>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,10 +3792,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3598,10 +3813,10 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -3610,19 +3825,19 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F54" s="3">
         <v>7000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>600</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>500</v>
       </c>
       <c r="AA54" s="3">
         <v>600</v>
       </c>
       <c r="AB54" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,46 +4447,48 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4266,10 +4527,16 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4301,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4348,16 +4615,22 @@
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -4372,19 +4645,19 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -4399,7 +4672,7 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -4411,10 +4684,10 @@
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
@@ -4423,36 +4696,42 @@
         <v>500</v>
       </c>
       <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -4461,55 +4740,61 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
-        <v>300</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
-        <v>300</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+      <c r="X60" s="3">
         <v>500</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
-      </c>
-      <c r="X60" s="3">
-        <v>700</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
       </c>
       <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,22 +4873,28 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4615,10 +4906,10 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -4627,10 +4918,10 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -4639,19 +4930,19 @@
         <v>300</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>40</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,31 +5217,37 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
-        <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
-      </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -4941,10 +5256,10 @@
         <v>500</v>
       </c>
       <c r="M66" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
@@ -4956,28 +5271,28 @@
         <v>700</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>700</v>
+      </c>
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
-      </c>
-      <c r="X66" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>700</v>
       </c>
       <c r="Z66" s="3">
         <v>700</v>
@@ -4986,10 +5301,16 @@
         <v>700</v>
       </c>
       <c r="AB66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10000</v>
+        <v>-7900</v>
       </c>
       <c r="E72" s="3">
-        <v>-10200</v>
+        <v>-7900</v>
       </c>
       <c r="F72" s="3">
         <v>-10000</v>
       </c>
       <c r="G72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-13200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F76" s="3">
         <v>6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3600</v>
       </c>
       <c r="J76" s="3">
         <v>3600</v>
       </c>
       <c r="K76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M76" s="3">
         <v>3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>400</v>
       </c>
-      <c r="W76" s="3">
-        <v>200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>100</v>
-      </c>
       <c r="Y76" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
-        <v>200</v>
+      <c r="D81" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>200</v>
-      </c>
       <c r="X81" s="3">
         <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>100</v>
       </c>
       <c r="AB81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,34 +6920,40 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
       <c r="J89" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>400</v>
@@ -6529,28 +6962,28 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>300</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6559,22 +6992,28 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6642,34 +7083,34 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,26 +7296,32 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6882,23 +7341,23 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,38 +7758,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7329,18 +7820,18 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V100" s="3" t="s">
+      <c r="X100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,64 +7930,70 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>400</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7499,18 +8002,24 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,94 +796,97 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
       </c>
       <c r="O8" s="3">
+        <v>800</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>400</v>
       </c>
       <c r="AA8" s="3">
         <v>400</v>
       </c>
       <c r="AB8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
@@ -893,10 +900,10 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -905,7 +912,7 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
@@ -914,25 +921,25 @@
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -953,60 +960,63 @@
         <v>100</v>
       </c>
       <c r="AD9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>200</v>
-      </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
@@ -1015,34 +1025,37 @@
         <v>300</v>
       </c>
       <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>300</v>
       </c>
       <c r="AA10" s="3">
         <v>300</v>
       </c>
       <c r="AB10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,34 +1472,35 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1482,28 +1509,28 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
@@ -1512,7 +1539,7 @@
         <v>400</v>
       </c>
       <c r="X17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
@@ -1530,60 +1557,63 @@
         <v>300</v>
       </c>
       <c r="AD17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
-        <v>200</v>
-      </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
@@ -1592,34 +1622,37 @@
         <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
+        <v>200</v>
+      </c>
+      <c r="X18" s="3">
         <v>1500</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
       <c r="Y18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="3">
         <v>100</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,16 +1683,17 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1736,79 +1770,82 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
       <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
-        <v>200</v>
-      </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
+        <v>200</v>
+      </c>
+      <c r="X21" s="3">
         <v>1500</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
       <c r="Y21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA21" s="3">
         <v>100</v>
@@ -1820,10 +1857,13 @@
         <v>100</v>
       </c>
       <c r="AD21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>200</v>
-      </c>
       <c r="S23" s="3">
         <v>200</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>200</v>
+      </c>
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA23" s="3">
         <v>100</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2003,11 +2049,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -2054,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>200</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>200</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>40</v>
@@ -2074,14 +2120,17 @@
       <c r="AB24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
+      <c r="AC24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,58 +2215,61 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>40</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>200</v>
-      </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
@@ -2226,84 +2278,87 @@
         <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA26" s="3">
         <v>100</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>200</v>
-      </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
@@ -2312,34 +2367,37 @@
         <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA27" s="3">
         <v>100</v>
       </c>
       <c r="AB27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2682,16 +2749,19 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>40</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2768,58 +2838,61 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>40</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>200</v>
-      </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
@@ -2828,34 +2901,37 @@
         <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
       <c r="Y33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA33" s="3">
         <v>100</v>
       </c>
       <c r="AB33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2940,58 +3016,61 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>40</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>200</v>
-      </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
@@ -3000,125 +3079,131 @@
         <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
       <c r="Y35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA35" s="3">
         <v>100</v>
       </c>
       <c r="AB35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,67 +3267,68 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1400</v>
       </c>
       <c r="N41" s="3">
         <v>1400</v>
       </c>
       <c r="O41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
-      </c>
-      <c r="S41" s="3">
-        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
+        <v>500</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
@@ -3250,13 +3337,13 @@
         <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
       </c>
       <c r="AA41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AB41" s="3">
         <v>200</v>
@@ -3265,10 +3352,13 @@
         <v>200</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -3362,52 +3455,52 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>800</v>
       </c>
       <c r="S43" s="3">
         <v>800</v>
       </c>
       <c r="T43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U43" s="3">
         <v>600</v>
@@ -3416,31 +3509,34 @@
         <v>600</v>
       </c>
       <c r="W43" s="3">
+        <v>600</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
-        <v>200</v>
-      </c>
       <c r="AA43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB43" s="3">
         <v>300</v>
       </c>
       <c r="AC43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3448,7 +3544,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
@@ -3460,19 +3556,19 @@
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
       </c>
       <c r="L44" s="3">
+        <v>500</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
@@ -3481,19 +3577,19 @@
         <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -3525,16 +3621,19 @@
       <c r="AD44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3546,25 +3645,25 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3579,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3591,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3611,25 +3710,28 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3400</v>
       </c>
       <c r="I46" s="3">
         <v>3400</v>
@@ -3641,55 +3743,55 @@
         <v>3400</v>
       </c>
       <c r="L46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>500</v>
       </c>
       <c r="AC46" s="3">
         <v>500</v>
@@ -3697,73 +3799,76 @@
       <c r="AD46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
-        <v>200</v>
-      </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1300</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1400</v>
       </c>
       <c r="V47" s="3">
         <v>1400</v>
       </c>
       <c r="W47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X47" s="3">
         <v>1500</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>40</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3798,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3819,7 +3927,7 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -3831,7 +3939,7 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3840,7 +3948,7 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E54" s="3">
         <v>9600</v>
       </c>
       <c r="F54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G54" s="3">
         <v>7000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>4000</v>
       </c>
       <c r="L54" s="3">
         <v>4000</v>
       </c>
       <c r="M54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3500</v>
       </c>
       <c r="Q54" s="3">
         <v>3500</v>
       </c>
       <c r="R54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S54" s="3">
         <v>3200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2900</v>
       </c>
       <c r="T54" s="3">
         <v>2900</v>
       </c>
       <c r="U54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="V54" s="3">
         <v>2500</v>
       </c>
       <c r="W54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>500</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>600</v>
       </c>
       <c r="AD54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4461,37 +4592,37 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4533,10 +4664,13 @@
         <v>0</v>
       </c>
       <c r="AD57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4574,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -4621,20 +4755,23 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
@@ -4651,16 +4788,16 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -4678,19 +4815,19 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
-        <v>200</v>
-      </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>500</v>
       </c>
       <c r="Z59" s="3">
         <v>500</v>
@@ -4702,24 +4839,27 @@
         <v>500</v>
       </c>
       <c r="AC59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AD59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -4728,13 +4868,13 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -4746,7 +4886,7 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
@@ -4755,46 +4895,49 @@
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>600</v>
       </c>
       <c r="AB60" s="3">
         <v>600</v>
       </c>
       <c r="AC60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD60" s="3">
         <v>700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4891,13 +5037,13 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4912,7 +5058,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -4924,7 +5070,7 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
@@ -4936,16 +5082,16 @@
         <v>300</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>100</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>40</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,46 +5378,49 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>700</v>
@@ -5277,25 +5435,25 @@
         <v>700</v>
       </c>
       <c r="T66" s="3">
+        <v>700</v>
+      </c>
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>700</v>
       </c>
       <c r="AA66" s="3">
         <v>700</v>
@@ -5307,10 +5465,13 @@
         <v>700</v>
       </c>
       <c r="AD66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E72" s="3">
         <v>-7900</v>
       </c>
       <c r="F72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-9600</v>
       </c>
       <c r="K72" s="3">
         <v>-9600</v>
       </c>
       <c r="L72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10300</v>
       </c>
       <c r="Q72" s="3">
         <v>-10300</v>
       </c>
       <c r="R72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-10600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-11200</v>
       </c>
       <c r="W72" s="3">
         <v>-11200</v>
       </c>
       <c r="X72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-13100</v>
       </c>
       <c r="AB72" s="3">
         <v>-13100</v>
       </c>
       <c r="AC72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-13200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,31 +6212,34 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E76" s="3">
         <v>8800</v>
       </c>
       <c r="F76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G76" s="3">
         <v>6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>3600</v>
       </c>
       <c r="K76" s="3">
         <v>3600</v>
@@ -6062,61 +6248,64 @@
         <v>3600</v>
       </c>
       <c r="M76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N76" s="3">
         <v>3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2800</v>
       </c>
       <c r="Q76" s="3">
         <v>2800</v>
       </c>
       <c r="R76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1900</v>
       </c>
       <c r="W76" s="3">
         <v>1900</v>
       </c>
       <c r="X76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y76" s="3">
         <v>400</v>
       </c>
-      <c r="Y76" s="3">
-        <v>200</v>
-      </c>
       <c r="Z76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB76" s="3">
         <v>-100</v>
       </c>
       <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,149 +6390,155 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>40</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>200</v>
-      </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
@@ -6352,34 +6547,37 @@
         <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
       <c r="Y81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA81" s="3">
         <v>100</v>
       </c>
       <c r="AB81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,58 +7152,58 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>200</v>
-      </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6998,22 +7215,25 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7089,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>40</v>
@@ -7100,20 +7321,20 @@
       <c r="T91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>40</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7316,14 +7546,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>40</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -7347,19 +7577,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>40</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,40 +8007,43 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>40</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7826,14 +8072,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>40</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,58 +8197,58 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
-        <v>200</v>
-      </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -8008,18 +8260,21 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNUP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NNUP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,97 +803,100 @@
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>800</v>
       </c>
       <c r="O8" s="3">
         <v>800</v>
       </c>
       <c r="P8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>400</v>
       </c>
       <c r="AB8" s="3">
         <v>400</v>
       </c>
       <c r="AC8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
@@ -903,10 +910,10 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -915,7 +922,7 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
@@ -924,25 +931,25 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
@@ -963,63 +970,66 @@
         <v>100</v>
       </c>
       <c r="AE9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>200</v>
-      </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>300</v>
@@ -1028,34 +1038,37 @@
         <v>300</v>
       </c>
       <c r="W10" s="3">
+        <v>300</v>
+      </c>
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>300</v>
       </c>
       <c r="AB10" s="3">
         <v>300</v>
       </c>
       <c r="AC10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,37 +1499,38 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1512,28 +1539,28 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
@@ -1542,7 +1569,7 @@
         <v>400</v>
       </c>
       <c r="Y17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
@@ -1560,63 +1587,66 @@
         <v>300</v>
       </c>
       <c r="AE17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
-        <v>200</v>
-      </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U18" s="3">
         <v>100</v>
@@ -1625,34 +1655,37 @@
         <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
-      <c r="Y18" s="3">
-        <v>100</v>
-      </c>
       <c r="Z18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB18" s="3">
         <v>100</v>
       </c>
       <c r="AC18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,19 +1717,20 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1773,82 +1807,85 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1500</v>
       </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB21" s="3">
         <v>100</v>
@@ -1860,10 +1897,13 @@
         <v>100</v>
       </c>
       <c r="AE21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1951,112 +1991,118 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
       <c r="T23" s="3">
         <v>200</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB23" s="3">
         <v>100</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -2103,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>200</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>200</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>40</v>
@@ -2123,14 +2169,17 @@
       <c r="AC24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
+      <c r="AD24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,61 +2267,64 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
@@ -2281,87 +2333,90 @@
         <v>100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
       <c r="Z26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="3">
         <v>100</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>100</v>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
@@ -2370,34 +2425,37 @@
         <v>100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
       <c r="Z27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB27" s="3">
         <v>100</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,19 +2819,22 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2841,61 +2911,64 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
@@ -2904,34 +2977,37 @@
         <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
       <c r="Z33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB33" s="3">
         <v>100</v>
       </c>
       <c r="AC33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,61 +3095,64 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
-        <v>100</v>
+      <c r="D35" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
@@ -3082,128 +3161,134 @@
         <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
       <c r="Z35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB35" s="3">
         <v>100</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,70 +3354,71 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1400</v>
       </c>
       <c r="O41" s="3">
         <v>1400</v>
       </c>
       <c r="P41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>500</v>
       </c>
       <c r="V41" s="3">
+        <v>500</v>
+      </c>
+      <c r="W41" s="3">
         <v>400</v>
-      </c>
-      <c r="W41" s="3">
-        <v>300</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
@@ -3340,13 +3427,13 @@
         <v>300</v>
       </c>
       <c r="Z41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA41" s="3">
         <v>400</v>
       </c>
       <c r="AB41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AC41" s="3">
         <v>200</v>
@@ -3355,10 +3442,13 @@
         <v>200</v>
       </c>
       <c r="AE41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3446,64 +3536,67 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
         <v>1300</v>
       </c>
       <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>800</v>
       </c>
       <c r="T43" s="3">
         <v>800</v>
       </c>
       <c r="U43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="V43" s="3">
         <v>600</v>
@@ -3512,31 +3605,34 @@
         <v>600</v>
       </c>
       <c r="X43" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
-        <v>200</v>
-      </c>
       <c r="AB43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC43" s="3">
         <v>300</v>
       </c>
       <c r="AD43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AE43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
@@ -3559,19 +3655,19 @@
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
       </c>
       <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -3580,19 +3676,19 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3633,10 +3732,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3648,25 +3747,25 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3681,7 +3780,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3693,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3713,28 +3812,31 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3400</v>
       </c>
       <c r="J46" s="3">
         <v>3400</v>
@@ -3746,55 +3848,55 @@
         <v>3400</v>
       </c>
       <c r="M46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>500</v>
       </c>
       <c r="AD46" s="3">
         <v>500</v>
@@ -3802,76 +3904,79 @@
       <c r="AE46" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="G47" s="3">
-        <v>200</v>
-      </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
+        <v>200</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1300</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1400</v>
       </c>
       <c r="W47" s="3">
         <v>1400</v>
       </c>
       <c r="X47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>40</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3909,7 +4017,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3930,7 +4038,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -3942,7 +4050,7 @@
         <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -3951,7 +4059,7 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>9600</v>
       </c>
       <c r="F54" s="3">
         <v>9600</v>
       </c>
       <c r="G54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H54" s="3">
         <v>7000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4000</v>
       </c>
       <c r="M54" s="3">
         <v>4000</v>
       </c>
       <c r="N54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3500</v>
       </c>
       <c r="R54" s="3">
         <v>3500</v>
       </c>
       <c r="S54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T54" s="3">
         <v>3200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2900</v>
       </c>
       <c r="U54" s="3">
         <v>2900</v>
       </c>
       <c r="V54" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="W54" s="3">
         <v>2500</v>
       </c>
       <c r="X54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y54" s="3">
         <v>2300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>500</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>600</v>
       </c>
       <c r="AE54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4595,37 +4726,37 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4667,10 +4798,13 @@
         <v>0</v>
       </c>
       <c r="AE57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4711,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4758,23 +4892,26 @@
       <c r="AE58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
@@ -4791,16 +4928,16 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -4818,19 +4955,19 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
-        <v>200</v>
-      </c>
       <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>500</v>
       </c>
       <c r="AA59" s="3">
         <v>500</v>
@@ -4842,27 +4979,30 @@
         <v>500</v>
       </c>
       <c r="AD59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -4871,13 +5011,13 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -4889,7 +5029,7 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
@@ -4898,46 +5038,49 @@
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>700</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>600</v>
       </c>
       <c r="AC60" s="3">
         <v>600</v>
       </c>
       <c r="AD60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE60" s="3">
         <v>700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,13 +5168,16 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -5040,13 +5186,13 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -5061,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -5073,7 +5219,7 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
@@ -5085,16 +5231,16 @@
         <v>300</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
       </c>
       <c r="X62" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>100</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>40</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,49 +5536,52 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>700</v>
@@ -5438,25 +5596,25 @@
         <v>700</v>
       </c>
       <c r="U66" s="3">
+        <v>700</v>
+      </c>
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>700</v>
       </c>
       <c r="AB66" s="3">
         <v>700</v>
@@ -5468,10 +5626,13 @@
         <v>700</v>
       </c>
       <c r="AE66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7900</v>
       </c>
       <c r="F72" s="3">
         <v>-7900</v>
       </c>
       <c r="G72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9600</v>
       </c>
       <c r="L72" s="3">
         <v>-9600</v>
       </c>
       <c r="M72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-10300</v>
       </c>
       <c r="R72" s="3">
         <v>-10300</v>
       </c>
       <c r="S72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-10600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-11200</v>
       </c>
       <c r="X72" s="3">
         <v>-11200</v>
       </c>
       <c r="Y72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13000</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-13100</v>
       </c>
       <c r="AC72" s="3">
         <v>-13100</v>
       </c>
       <c r="AD72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-13200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,34 +6398,37 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E76" s="3">
         <v>8900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8800</v>
       </c>
       <c r="F76" s="3">
         <v>8800</v>
       </c>
       <c r="G76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H76" s="3">
         <v>6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>3600</v>
       </c>
       <c r="L76" s="3">
         <v>3600</v>
@@ -6251,61 +6437,64 @@
         <v>3600</v>
       </c>
       <c r="N76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O76" s="3">
         <v>3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2800</v>
       </c>
       <c r="R76" s="3">
         <v>2800</v>
       </c>
       <c r="S76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T76" s="3">
         <v>2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1900</v>
       </c>
       <c r="X76" s="3">
         <v>1900</v>
       </c>
       <c r="Y76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z76" s="3">
         <v>400</v>
       </c>
-      <c r="Z76" s="3">
-        <v>200</v>
-      </c>
       <c r="AA76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB76" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC76" s="3">
         <v>-100</v>
       </c>
       <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,155 +6582,161 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
-        <v>100</v>
+      <c r="D81" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
@@ -6550,34 +6745,37 @@
         <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
       <c r="Z81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB81" s="3">
         <v>100</v>
       </c>
       <c r="AC81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,70 +7357,73 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -7218,22 +7435,25 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
       <c r="AD89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7313,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>40</v>
@@ -7324,20 +7545,20 @@
       <c r="U91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>40</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7549,14 +7779,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>40</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -7580,19 +7810,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>40</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8021,32 +8267,32 @@
       <c r="E100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>40</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -8075,14 +8321,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>40</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,70 +8437,73 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
       <c r="L102" s="3">
         <v>200</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -8263,18 +8515,21 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
